--- a/biology/Médecine/Ionel_Rapaport/Ionel_Rapaport.xlsx
+++ b/biology/Médecine/Ionel_Rapaport/Ionel_Rapaport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florian Ionel Rapaport, né le 30 mars 1909 à Buzău en Roumanie et mort en 1972 dans le Wisconsin, est un médecin d'origine roumaine, spécialiste en endocrinologie et en psychopathologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ionel Rapaport a grandi en Roumanie dans une famille juive. Il a étudié la médecine à l'université de Bucarest.
 Pendant la Seconde Guerre mondiale, il s'installe à Paris, où il a étudié sous la direction du professeur Charles Blondel en poste à la chaire de psychologie pathologique à la Sorbonne. Sa thèse de doctorat de médecine, portait sur le rituel de castration.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rituel de la castration: L'état mental des Skoptzy, Librairie Lipschutz, Paris: 1937
 Introduction à la mystique de la secte collective psychopathologie de Skoptzy, éditions Erka, Paris, 1949 (Collection internationale de psychologie sociale normale et pathologique)
